--- a/class/test.xlsx
+++ b/class/test.xlsx
@@ -1018,7 +1018,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="74">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1038,21 +1038,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
+      <b val="1"/>
+      <i val="0"/>
       <strike val="0"/>
-      <u val="none"/>
+      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFEE82EE&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFAF0E6&#13;&#10;"/>
+      <color rgb="FFffb7c275"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1061,7 +1052,16 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF228B22&#13;&#10;"/>
+      <color rgb="FFff00102b"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0f0701"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1070,7 +1070,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF778899&#13;&#10;"/>
+      <color rgb="FFff75d41e"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1079,7 +1079,52 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFFFFF00&#13;&#10;"/>
+      <color rgb="FFffffff80"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff255ae0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff001b4b"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffff0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff2d96e2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff74ff75"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1088,7 +1133,16 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFA9A9A9&#13;&#10;"/>
+      <color rgb="FFffd174a9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0a0a24"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1097,7 +1151,61 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFF5FFFA&#13;&#10;"/>
+      <color rgb="FFff7fff80"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff002900"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff000010"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff00ff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff020a1a"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff565657"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffb4ff7e"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1106,7 +1214,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFD8BFD8&#13;&#10;"/>
+      <color rgb="FFff1f0001"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1115,7 +1223,52 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF9370DB&#13;&#10;"/>
+      <color rgb="FFff009cb9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff993256"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff232324"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff070701"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffffff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff969697"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1124,7 +1277,34 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF9400D3&#13;&#10;"/>
+      <color rgb="FFff191906"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff005f86"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffe6e690"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff010000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1133,16 +1313,115 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFF5F5F5&#13;&#10;"/>
+      <color rgb="FFff001b1f"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff800100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffcd32ce"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff274028"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff009cb9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff565657"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff020a1a"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
-      <i val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffd0b0b1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF800080&#13;&#10;"/>
+      <color rgb="FFff1f0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff010000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffff9c00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff000010"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1151,7 +1430,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF9ACD32"/>
+      <color rgb="FFff565657"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1160,7 +1439,52 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFC71585&#13;&#10;"/>
+      <color rgb="FFff007400"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffff0001"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff050f1a"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffffff01"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFffd174a9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff993256"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1169,7 +1493,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF9932CC&#13;&#10;"/>
+      <color rgb="FFff5ad5d6"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1178,7 +1502,16 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF48D1CC&#13;&#10;"/>
+      <color rgb="FFff5200d1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffff0081"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1187,16 +1520,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFDDA0DD&#13;&#10;"/>
+      <color rgb="FFff070701"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
-      <i val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff002900"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF800000&#13;&#10;"/>
+      <color rgb="FFff8f7f70"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1205,7 +1547,79 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF98FB98&#13;&#10;"/>
+      <color rgb="FFff166986"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff248f6d"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffb72e34"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffd174a9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff005b00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff000533"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff4dddde"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffb72e34"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff3f3f40"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1214,7 +1628,25 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFD3D3D3&#13;&#10;"/>
+      <color rgb="FFffdd74de"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFff002547"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFffe16f01"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1223,61 +1655,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF008B8B&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFFF5EE&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFAFAD2&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF6A5ACD&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFEFD5&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF4169E1&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFA0522D&#13;&#10;"/>
+      <color rgb="FFffd0b0b1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1286,25 +1664,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF6B8E23&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF8A2BE2&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF808000&#13;&#10;"/>
+      <color rgb="FFff670468"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1313,34 +1673,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFFF6347&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFFA500&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFFEBCD&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF90EE90&#13;&#10;"/>
+      <color rgb="FFff704371"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1349,353 +1682,11 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFA9A9A9&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFAFA&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF20B2AA&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFDC143C&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFFEBCD&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF40E0D0&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFDA70D6&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFAEBD7&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF191970&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFAEBD7&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFADD8E6&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFF0FFFF&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFAFAD2&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFDA70D6&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFF0F8FF&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFBA55D3&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF32CD32&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF00CED1&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF00008B&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF00FA9A&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFACD&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF778899&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFB8860B&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFAFA&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFBC8F8F&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF556B2F&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF8B0000&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF8B4513&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFF0E68C&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFDEAD&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF556B2F&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF98FB98&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFF5F5F5&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFE4B5&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFCD5C5C&#13;&#10;"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFADFF2F&#13;&#10;"/>
+      <color rgb="FFffffff75"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,8 +1704,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7CFC00&#13;&#10;"/>
-        <bgColor rgb="FF7CFC00&#13;&#10;"/>
+        <fgColor rgb="FF483D8B&#13;&#10;"/>
+        <bgColor rgb="FF483D8B&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFD5&#13;&#10;"/>
+        <bgColor rgb="FFFFEFD5&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF&#13;&#10;"/>
+        <bgColor rgb="FFF0F8FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A2BE2&#13;&#10;"/>
+        <bgColor rgb="FF8A2BE2&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080&#13;&#10;"/>
+        <bgColor rgb="FF000080&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1725,8 +1740,224 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00008B&#13;&#10;"/>
-        <bgColor rgb="FF00008B&#13;&#10;"/>
+        <fgColor rgb="FFFFE4B5&#13;&#10;"/>
+        <bgColor rgb="FFFFE4B5&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF&#13;&#10;"/>
+        <bgColor rgb="FF00FFFF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2691E&#13;&#10;"/>
+        <bgColor rgb="FFD2691E&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B008B&#13;&#10;"/>
+        <bgColor rgb="FF8B008B&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57&#13;&#10;"/>
+        <bgColor rgb="FF2E8B57&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5DC&#13;&#10;"/>
+        <bgColor rgb="FFF5F5DC&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080&#13;&#10;"/>
+        <bgColor rgb="FF800080&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700&#13;&#10;"/>
+        <bgColor rgb="FFFFD700&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF0&#13;&#10;"/>
+        <bgColor rgb="FFFFFFF0&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF&#13;&#10;"/>
+        <bgColor rgb="FFFF00FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF5E6&#13;&#10;"/>
+        <bgColor rgb="FFFDF5E6&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9&#13;&#10;"/>
+        <bgColor rgb="FFA9A9A9&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B0082&#13;&#10;"/>
+        <bgColor rgb="FF4B0082&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFFF&#13;&#10;"/>
+        <bgColor rgb="FFE0FFFF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347&#13;&#10;"/>
+        <bgColor rgb="FFFF6347&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CDAA&#13;&#10;"/>
+        <bgColor rgb="FF66CDAA&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC&#13;&#10;"/>
+        <bgColor rgb="FFDCDCDC&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF&#13;&#10;"/>
+        <bgColor rgb="FFF8F8FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF&#13;&#10;"/>
+        <bgColor rgb="FF0000FF&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF696969&#13;&#10;"/>
+        <bgColor rgb="FF696969&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA&#13;&#10;"/>
+        <bgColor rgb="FFE6E6FA&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A&#13;&#10;"/>
+        <bgColor rgb="FFFFA07A&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF191970&#13;&#10;"/>
+        <bgColor rgb="FF191970&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000&#13;&#10;"/>
+        <bgColor rgb="FFFF0000&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4E1&#13;&#10;"/>
+        <bgColor rgb="FFFFE4E1&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFF00&#13;&#10;"/>
+        <bgColor rgb="FF7FFF00&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32&#13;&#10;"/>
+        <bgColor rgb="FF32CD32&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000&#13;&#10;"/>
+        <bgColor rgb="FF000000&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8BFD8&#13;&#10;"/>
+        <bgColor rgb="FFD8BFD8&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F4F4F&#13;&#10;"/>
+        <bgColor rgb="FF2F4F4F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400&#13;&#10;"/>
+        <bgColor rgb="FF006400&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C00&#13;&#10;"/>
+        <bgColor rgb="FFFF8C00&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF0E6&#13;&#10;"/>
+        <bgColor rgb="FFFAF0E6&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA52A2A&#13;&#10;"/>
+        <bgColor rgb="FFA52A2A&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F&#13;&#10;"/>
+        <bgColor rgb="FFADFF2F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F&#13;&#10;"/>
+        <bgColor rgb="FF00FF7F&#13;&#10;"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF708090&#13;&#10;"/>
+        <bgColor rgb="FF708090&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1737,86 +1968,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF696969&#13;&#10;"/>
-        <bgColor rgb="FF696969&#13;&#10;"/>
+        <fgColor rgb="FFDB7093&#13;&#10;"/>
+        <bgColor rgb="FFDB7093&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4682B4&#13;&#10;"/>
-        <bgColor rgb="FF4682B4&#13;&#10;"/>
+        <fgColor rgb="FF48D1CC&#13;&#10;"/>
+        <bgColor rgb="FF48D1CC&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6B8E23&#13;&#10;"/>
-        <bgColor rgb="FF6B8E23&#13;&#10;"/>
+        <fgColor rgb="FFFFA500&#13;&#10;"/>
+        <bgColor rgb="FFFFA500&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9370DB&#13;&#10;"/>
-        <bgColor rgb="FF9370DB&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8B008B&#13;&#10;"/>
-        <bgColor rgb="FF8B008B&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCD853F&#13;&#10;"/>
-        <bgColor rgb="FFCD853F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8A2BE2&#13;&#10;"/>
-        <bgColor rgb="FF8A2BE2&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8BFD8&#13;&#10;"/>
-        <bgColor rgb="FFD8BFD8&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000&#13;&#10;"/>
-        <bgColor rgb="FF008000&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF708090&#13;&#10;"/>
-        <bgColor rgb="FF708090&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2F4F4F&#13;&#10;"/>
-        <bgColor rgb="FF2F4F4F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF663399&#13;&#10;"/>
-        <bgColor rgb="FF663399&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF0E6&#13;&#10;"/>
-        <bgColor rgb="FFFAF0E6&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887&#13;&#10;"/>
-        <bgColor rgb="FFDEB887&#13;&#10;"/>
+        <fgColor rgb="FFFFFACD&#13;&#10;"/>
+        <bgColor rgb="FFFFFACD&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
@@ -1827,548 +1998,601 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800000&#13;&#10;"/>
-        <bgColor rgb="FF800000&#13;&#10;"/>
+        <fgColor rgb="FFC0C0C0&#13;&#10;"/>
+        <bgColor rgb="FFC0C0C0&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDA0DD&#13;&#10;"/>
-        <bgColor rgb="FFDDA0DD&#13;&#10;"/>
+        <fgColor rgb="FF228B22&#13;&#10;"/>
+        <bgColor rgb="FF228B22&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6A5ACD&#13;&#10;"/>
-        <bgColor rgb="FF6A5ACD&#13;&#10;"/>
+        <fgColor rgb="FFFFDAB9&#13;&#10;"/>
+        <bgColor rgb="FFFFDAB9&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFAFA&#13;&#10;"/>
-        <bgColor rgb="FFFFFAFA&#13;&#10;"/>
+        <fgColor rgb="FF1E90FF&#13;&#10;"/>
+        <bgColor rgb="FF1E90FF&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB0C4DE&#13;&#10;"/>
-        <bgColor rgb="FFB0C4DE&#13;&#10;"/>
+        <fgColor rgb="FF98FB98&#13;&#10;"/>
+        <bgColor rgb="FF98FB98&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA&#13;&#10;"/>
-        <bgColor rgb="FFE6E6FA&#13;&#10;"/>
+        <fgColor rgb="FF8FBC8F&#13;&#10;"/>
+        <bgColor rgb="FF8FBC8F&#13;&#10;"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF&#13;&#10;"/>
-        <bgColor rgb="FFFF00FF&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF556B2F&#13;&#10;"/>
-        <bgColor rgb="FF556B2F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFFF&#13;&#10;"/>
-        <bgColor rgb="FFE0FFFF&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4B0082&#13;&#10;"/>
-        <bgColor rgb="FF4B0082&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008080&#13;&#10;"/>
-        <bgColor rgb="FF008080&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA8072&#13;&#10;"/>
-        <bgColor rgb="FFFA8072&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC71585&#13;&#10;"/>
-        <bgColor rgb="FFC71585&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF8DC&#13;&#10;"/>
-        <bgColor rgb="FFFFF8DC&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFEEEE&#13;&#10;"/>
-        <bgColor rgb="FFAFEEEE&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00&#13;&#10;"/>
-        <bgColor rgb="FFFFFF00&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460&#13;&#10;"/>
-        <bgColor rgb="FFF4A460&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3&#13;&#10;"/>
-        <bgColor rgb="FFD3D3D3&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080&#13;&#10;"/>
-        <bgColor rgb="FF808080&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CD&#13;&#10;"/>
-        <bgColor rgb="FF0000CD&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5DEB3&#13;&#10;"/>
-        <bgColor rgb="FFF5DEB3&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEFA&#13;&#10;"/>
-        <bgColor rgb="FF87CEFA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6347&#13;&#10;"/>
-        <bgColor rgb="FFFF6347&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4&#13;&#10;"/>
-        <bgColor rgb="FF7FFFD4&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CED1&#13;&#10;"/>
-        <bgColor rgb="FF00CED1&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5DC&#13;&#10;"/>
-        <bgColor rgb="FFF5F5DC&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF7F&#13;&#10;"/>
-        <bgColor rgb="FF00FF7F&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0CB&#13;&#10;"/>
-        <bgColor rgb="FFFFC0CB&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5FFFA&#13;&#10;"/>
-        <bgColor rgb="FFF5FFFA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEE8AA&#13;&#10;"/>
-        <bgColor rgb="FFEEE8AA&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF483D8B&#13;&#10;"/>
-        <bgColor rgb="FF483D8B&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F8FF&#13;&#10;"/>
-        <bgColor rgb="FFF0F8FF&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDEAD&#13;&#10;"/>
-        <bgColor rgb="FFFFDEAD&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA70D6&#13;&#10;"/>
-        <bgColor rgb="FFDA70D6&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1493&#13;&#10;"/>
-        <bgColor rgb="FFFF1493&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF0F5&#13;&#10;"/>
-        <bgColor rgb="FFFFF0F5&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDB7093&#13;&#10;"/>
-        <bgColor rgb="FFDB7093&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFF0&#13;&#10;"/>
-        <bgColor rgb="FFFFFFF0&#13;&#10;"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8860B&#13;&#10;"/>
-        <bgColor rgb="FFB8860B&#13;&#10;"/>
+        <fgColor rgb="FF00008B&#13;&#10;"/>
+        <bgColor rgb="FF00008B&#13;&#10;"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="77">
+    <border/>
     <border/>
     <border>
       <left style="hair">
-        <color rgb="FFADD8E6&#13;&#10;"/>
+        <color rgb="FF7FFFD4&#13;&#10;"/>
       </left>
       <right style="hair">
-        <color rgb="FFADD8E6&#13;&#10;"/>
+        <color rgb="FF7FFFD4&#13;&#10;"/>
       </right>
       <top style="hair">
-        <color rgb="FFADD8E6&#13;&#10;"/>
+        <color rgb="FF7FFFD4&#13;&#10;"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFADD8E6&#13;&#10;"/>
+        <color rgb="FF7FFFD4&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFF5FFFA&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFF5FFFA&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFF5FFFA&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFF5FFFA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF7FFF00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF708090&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF708090&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF708090&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF708090&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FF8B008B&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FF8B008B&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FF8B008B&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FFFF00FF&#13;&#10;"/>
+        <color rgb="FF8B008B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFF5F5F5&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFF5F5F5&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFF5F5F5&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFF5F5F5&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FFFFFACD&#13;&#10;"/>
+        <color rgb="FFF8F8FF&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FFFFFACD&#13;&#10;"/>
+        <color rgb="FFF8F8FF&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FFFFFACD&#13;&#10;"/>
+        <color rgb="FFF8F8FF&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FFFFFACD&#13;&#10;"/>
+        <color rgb="FFF8F8FF&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="thick">
+        <color rgb="FF808000&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF808000&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF808000&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF808000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF8A2BE2&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF191970&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF191970&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF191970&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF191970&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00FF7F&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF800000&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF800000&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF800000&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF800000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF0F8FF&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF0F8FF&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF0F8FF&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF0F8FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFEE82EE&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFEE82EE&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFEE82EE&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFEE82EE&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFDEB887&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
         <color rgb="FF9ACD32"/>
       </left>
-      <right style="thick">
+      <right style="dashDot">
         <color rgb="FF9ACD32"/>
       </right>
-      <top style="thick">
+      <top style="dashDot">
         <color rgb="FF9ACD32"/>
       </top>
-      <bottom style="thick">
+      <bottom style="dashDot">
         <color rgb="FF9ACD32"/>
       </bottom>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+      <left style="thick">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
       </left>
-      <right style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+      <right style="thick">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
       </right>
-      <top style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+      <top style="thick">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
       </top>
-      <bottom style="double">
-        <color rgb="FFD3D3D3&#13;&#10;"/>
+      <bottom style="thick">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAEBD7&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFAEBD7&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFAEBD7&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFAEBD7&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA9A9A9&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA9A9A9&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="slantDashDot">
-        <color rgb="FF778899&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </left>
       <right style="slantDashDot">
-        <color rgb="FF778899&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </right>
       <top style="slantDashDot">
-        <color rgb="FF778899&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
       </top>
       <bottom style="slantDashDot">
-        <color rgb="FF778899&#13;&#10;"/>
+        <color rgb="FF708090&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF6347&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF5F9EA0&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FFD8BFD8&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FFD8BFD8&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FF4682B4&#13;&#10;"/>
+        <color rgb="FFD8BFD8&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FF4682B4&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
+        <color rgb="FFD8BFD8&#13;&#10;"/>
       </bottom>
     </border>
     <border/>
     <border>
+      <left style="thick">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB8860B&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFD2691E&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFD2691E&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFD2691E&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFD2691E&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFADFF2F&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFADFF2F&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFADFF2F&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFADFF2F&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00BFFF&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00BFFF&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00BFFF&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00BFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border/>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFAFAD2&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4B0082&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
       <left style="double">
+        <color rgb="FF008000&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FF008000&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FF008000&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF008000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FFE0FFFF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF808000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD8BFD8&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
         <color rgb="FF00FFFF&#13;&#10;"/>
       </left>
-      <right style="double">
+      <right style="mediumDashed">
         <color rgb="FF00FFFF&#13;&#10;"/>
       </right>
-      <top style="double">
+      <top style="mediumDashed">
         <color rgb="FF00FFFF&#13;&#10;"/>
       </top>
-      <bottom style="double">
+      <bottom style="mediumDashed">
         <color rgb="FF00FFFF&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="mediumDashed">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FFBA55D3&#13;&#10;"/>
       </left>
       <right style="mediumDashed">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FFBA55D3&#13;&#10;"/>
       </right>
       <top style="mediumDashed">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FFBA55D3&#13;&#10;"/>
       </top>
       <bottom style="mediumDashed">
-        <color rgb="FFDCDCDC&#13;&#10;"/>
+        <color rgb="FFBA55D3&#13;&#10;"/>
       </bottom>
     </border>
+    <border/>
     <border>
-      <left style="double">
-        <color rgb="FF48D1CC&#13;&#10;"/>
+      <left style="hair">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
       </left>
-      <right style="double">
-        <color rgb="FF48D1CC&#13;&#10;"/>
+      <right style="hair">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
       </right>
-      <top style="double">
-        <color rgb="FF48D1CC&#13;&#10;"/>
+      <top style="hair">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF48D1CC&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF7B68EE&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFFF6347&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFFF6347&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFFF6347&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFFF6347&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF00FA9A&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF00FA9A&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF00FA9A&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF00FA9A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFAF0&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFAF0&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFAF0&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFAF0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFF5F5F5&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF0000CD&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF0000CD&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF0000CD&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF0000CD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF6495ED&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF6495ED&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF6495ED&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF6495ED&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF40E0D0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF9400D3&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF9400D3&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF9400D3&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF9400D3&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFB6C1&#13;&#10;"/>
+      <bottom style="hair">
+        <color rgb="FFAFEEEE&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2383,6 +2607,106 @@
       </top>
       <bottom style="hair">
         <color rgb="FF9ACD32"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="hair">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFF5DEB3&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFA52A2A&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF006400&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF006400&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF006400&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF006400&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="hair">
+        <color rgb="FF006400&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF006400&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF006400&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF006400&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF40E0D0&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFFFFF0&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2400,73 +2724,74 @@
       </bottom>
     </border>
     <border>
+      <left style="dashDot">
+        <color rgb="FFB22222&#13;&#10;"/>
+      </left>
+      <right style="dashDot">
+        <color rgb="FFB22222&#13;&#10;"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFB22222&#13;&#10;"/>
+      </top>
+      <bottom style="dashDot">
+        <color rgb="FFB22222&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
       <left style="double">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </left>
       <right style="double">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </right>
       <top style="double">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
       </top>
       <bottom style="double">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF32CD32&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC71585&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC71585&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC71585&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC71585&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF6B8E23&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF6B8E23&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF6B8E23&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF6B8E23&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF00CED1&#13;&#10;"/>
       </left>
       <right style="thick">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF00CED1&#13;&#10;"/>
       </right>
       <top style="thick">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
+        <color rgb="FF00CED1&#13;&#10;"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFE0FFFF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFDEAD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFFFA500&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFEEE8AA&#13;&#10;"/>
+        <color rgb="FF00CED1&#13;&#10;"/>
       </bottom>
     </border>
     <border>
@@ -2485,500 +2810,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFDA70D6&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFDA70D6&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFDA70D6&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFDA70D6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FF9932CC&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FF9932CC&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FF9932CC&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FF9932CC&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBA55D3&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBA55D3&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBA55D3&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBA55D3&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF7F50&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFAEBD7&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF8A2BE2&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border/>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFDAA520&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFDAA520&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFDAA520&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFDAA520&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF000080&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFAF0E6&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFAF0E6&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFAF0E6&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFAF0E6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF1E90FF&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF1E90FF&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF1E90FF&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF1E90FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFF0FFF0&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFFEBCD&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF778899&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF32CD32&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF0000FF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FFB8860B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF191970&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF191970&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF191970&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF191970&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </left>
-      <right style="slantDashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </right>
-      <top style="slantDashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FF00008B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB0E0E6&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFF0FFFF&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFF0FFFF&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFF0FFFF&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFF0FFFF&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF0000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </left>
-      <right style="mediumDashed">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF8B008B&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFFFA07A&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
-      </left>
-      <right style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
-      </right>
-      <top style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
-      </top>
-      <bottom style="dashDot">
-        <color rgb="FF2E8B57&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF778899&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000080&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000080&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000080&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000080&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000&#13;&#10;"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000&#13;&#10;"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000&#13;&#10;"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000&#13;&#10;"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FFF0FFFF&#13;&#10;"/>
       </left>
       <right style="thick">
@@ -2992,45 +2823,143 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
+      <left style="hair">
+        <color rgb="FF00FA9A&#13;&#10;"/>
       </left>
-      <right style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
+      <right style="hair">
+        <color rgb="FF00FA9A&#13;&#10;"/>
       </right>
-      <top style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
+      <top style="hair">
+        <color rgb="FF00FA9A&#13;&#10;"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFADFF2F&#13;&#10;"/>
+      <bottom style="hair">
+        <color rgb="FF00FA9A&#13;&#10;"/>
       </bottom>
     </border>
     <border>
       <left style="double">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </left>
       <right style="double">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </right>
       <top style="double">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </top>
       <bottom style="double">
-        <color rgb="FF000080&#13;&#10;"/>
+        <color rgb="FF696969&#13;&#10;"/>
       </bottom>
     </border>
     <border>
-      <left style="dashDot">
-        <color rgb="FFA0522D&#13;&#10;"/>
+      <left style="medium">
+        <color rgb="FF00FF00&#13;&#10;"/>
       </left>
-      <right style="dashDot">
-        <color rgb="FFA0522D&#13;&#10;"/>
+      <right style="medium">
+        <color rgb="FF00FF00&#13;&#10;"/>
       </right>
-      <top style="dashDot">
-        <color rgb="FFA0522D&#13;&#10;"/>
+      <top style="medium">
+        <color rgb="FF00FF00&#13;&#10;"/>
       </top>
-      <bottom style="dashDot">
-        <color rgb="FFA0522D&#13;&#10;"/>
+      <bottom style="medium">
+        <color rgb="FF00FF00&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFAF0E6&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF00FF&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFFFFAFA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFEEE8AA&#13;&#10;"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFEEE8AA&#13;&#10;"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFEEE8AA&#13;&#10;"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFEEE8AA&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4169E1&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF000000&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF000000&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF000000&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF000000&#13;&#10;"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF808080&#13;&#10;"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF808080&#13;&#10;"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF808080&#13;&#10;"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF808080&#13;&#10;"/>
       </bottom>
     </border>
   </borders>
@@ -3071,205 +3000,205 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="7" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="12" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="13" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="13" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="14" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="14" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="15" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="15" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="16" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="16" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="17" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="17" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="18" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="18" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="19" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="19" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="20" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="20" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="21" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="21" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="22" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="22" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="23" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="23" numFmtId="0" fillId="23" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="23" numFmtId="0" fillId="24" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="0" fillId="24" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="0" fillId="25" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="0" fillId="25" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="26" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="26" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="27" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="27" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="28" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="28" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="29" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="29" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="30" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="30" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="31" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="31" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="32" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="32" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="33" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="33" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="34" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="34" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="35" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="35" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="36" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="36" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="37" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="37" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="23" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="38" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="20" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="39" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="19" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="7" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="38" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="7" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="41" numFmtId="0" fillId="22" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="41" numFmtId="0" fillId="40" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="32" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="25" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="39" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="41" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="17" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="8" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="42" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="20" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="46" numFmtId="0" fillId="7" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="46" numFmtId="0" fillId="40" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="47" numFmtId="0" fillId="29" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="47" numFmtId="0" fillId="10" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="48" numFmtId="0" fillId="43" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="48" numFmtId="0" fillId="41" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="49" numFmtId="0" fillId="44" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="49" numFmtId="0" fillId="27" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="50" numFmtId="0" fillId="45" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="50" numFmtId="0" fillId="13" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="51" numFmtId="0" fillId="35" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="51" numFmtId="0" fillId="24" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="52" numFmtId="0" fillId="46" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="52" numFmtId="0" fillId="42" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="53" numFmtId="0" fillId="20" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="53" numFmtId="0" fillId="43" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="54" numFmtId="0" fillId="47" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="54" numFmtId="0" fillId="44" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="55" numFmtId="0" fillId="48" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="55" numFmtId="0" fillId="26" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="56" numFmtId="0" fillId="49" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="56" numFmtId="0" fillId="16" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="50" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="57" numFmtId="0" fillId="45" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="51" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="33" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="57" numFmtId="0" fillId="22" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="58" numFmtId="0" fillId="46" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="58" numFmtId="0" fillId="52" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="59" numFmtId="0" fillId="47" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="59" numFmtId="0" fillId="3" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="60" numFmtId="0" fillId="48" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="60" numFmtId="0" fillId="53" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="52" numFmtId="0" fillId="42" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="61" numFmtId="0" fillId="54" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="61" numFmtId="0" fillId="13" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="62" numFmtId="0" fillId="21" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="62" numFmtId="0" fillId="49" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="63" numFmtId="0" fillId="55" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="64" numFmtId="0" fillId="56" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="63" numFmtId="0" fillId="50" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="65" numFmtId="0" fillId="6" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="64" numFmtId="0" fillId="51" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="66" numFmtId="0" fillId="35" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="65" numFmtId="0" fillId="48" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="67" numFmtId="0" fillId="7" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="66" numFmtId="0" fillId="52" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="68" numFmtId="0" fillId="57" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="67" numFmtId="0" fillId="53" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="69" numFmtId="0" fillId="58" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="68" numFmtId="0" fillId="54" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="70" numFmtId="0" fillId="4" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="69" numFmtId="0" fillId="55" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="71" numFmtId="0" fillId="59" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="70" numFmtId="0" fillId="38" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="72" numFmtId="0" fillId="16" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="71" numFmtId="0" fillId="56" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="73" numFmtId="0" fillId="7" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="72" numFmtId="0" fillId="57" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="74" numFmtId="0" fillId="60" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="73" numFmtId="0" fillId="58" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
